--- a/API Files/Acuity Research/Clip Relation.xlsx
+++ b/API Files/Acuity Research/Clip Relation.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B93FC2FC-9FB2-4BDA-ADA4-7C6FED2B7586}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Clip Relation" r:id="rId1" sheetId="1"/>
+    <sheet name="Clip Relation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="274">
   <si>
     <t>Clip NSAdmin Record01</t>
   </si>
@@ -847,8 +846,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1283,99 +1281,99 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1392,10 +1390,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1430,7 +1428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,7 +1463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1559,21 +1557,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1590,7 +1588,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1642,31 +1640,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="74.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="44.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>265</v>
       </c>
@@ -1689,10 +1687,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1700,10 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>272</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1711,10 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>272</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1722,10 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>272</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1733,10 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>272</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1744,10 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>272</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1755,10 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>272</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1766,10 +1743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>272</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1777,10 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>272</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1788,10 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>272</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1799,10 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>272</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1810,10 +1775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>272</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1821,10 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>272</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1832,10 +1791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>272</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1843,10 +1799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>272</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1854,10 +1807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>272</v>
-      </c>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -1865,10 +1815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>272</v>
-      </c>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -1876,10 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>272</v>
-      </c>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -1887,10 +1831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>272</v>
-      </c>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1898,10 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>272</v>
-      </c>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1909,10 +1847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>272</v>
-      </c>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -1920,10 +1855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>272</v>
-      </c>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -1931,10 +1863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>272</v>
-      </c>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -1942,10 +1871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>272</v>
-      </c>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -1953,10 +1879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>272</v>
-      </c>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -1964,10 +1887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>272</v>
-      </c>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -1975,10 +1895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>272</v>
-      </c>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -1986,10 +1903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>272</v>
-      </c>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -1997,10 +1911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>272</v>
-      </c>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -2008,10 +1919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>272</v>
-      </c>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -2019,10 +1927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>272</v>
-      </c>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -2030,10 +1935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>272</v>
-      </c>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -2041,10 +1943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>272</v>
-      </c>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -2052,10 +1951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>272</v>
-      </c>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -2063,10 +1959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>272</v>
-      </c>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2074,10 +1967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>272</v>
-      </c>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -2085,10 +1975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>272</v>
-      </c>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -2096,10 +1983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>272</v>
-      </c>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -2107,10 +1991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>272</v>
-      </c>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2118,10 +1999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>272</v>
-      </c>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -2129,10 +2007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>272</v>
-      </c>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -2140,10 +2015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>272</v>
-      </c>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -2151,10 +2023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>272</v>
-      </c>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -2162,10 +2031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>272</v>
-      </c>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -2173,10 +2039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>272</v>
-      </c>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -2184,10 +2047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>272</v>
-      </c>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -2195,10 +2055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>272</v>
-      </c>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -2206,10 +2063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>272</v>
-      </c>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -2217,10 +2071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>272</v>
-      </c>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -2228,10 +2079,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>272</v>
-      </c>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -2239,10 +2087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>272</v>
-      </c>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -2250,10 +2095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>272</v>
-      </c>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -2261,10 +2103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>272</v>
-      </c>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -2272,10 +2111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>272</v>
-      </c>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -2283,10 +2119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>272</v>
-      </c>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -2294,10 +2127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>272</v>
-      </c>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -2305,10 +2135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>272</v>
-      </c>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -2316,10 +2143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>272</v>
-      </c>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -2327,10 +2151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>272</v>
-      </c>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -2338,10 +2159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>272</v>
-      </c>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -2349,10 +2167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>272</v>
-      </c>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -2360,10 +2175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>272</v>
-      </c>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -2371,10 +2183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>272</v>
-      </c>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -2382,10 +2191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>272</v>
-      </c>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -2393,10 +2199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>272</v>
-      </c>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -2404,10 +2207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>272</v>
-      </c>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -2415,10 +2215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>272</v>
-      </c>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -2426,10 +2223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>272</v>
-      </c>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -2437,10 +2231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>272</v>
-      </c>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -2448,10 +2239,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>272</v>
-      </c>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -2459,10 +2247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>272</v>
-      </c>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -2470,10 +2255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>272</v>
-      </c>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -2481,10 +2263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>272</v>
-      </c>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -2492,10 +2271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>272</v>
-      </c>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -2503,10 +2279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>272</v>
-      </c>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -2514,10 +2287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>272</v>
-      </c>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>0</v>
       </c>
@@ -2525,10 +2295,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>272</v>
-      </c>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -2536,10 +2303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>272</v>
-      </c>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -2547,10 +2311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>272</v>
-      </c>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -2558,10 +2319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>272</v>
-      </c>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -2569,10 +2327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>272</v>
-      </c>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -2580,10 +2335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>272</v>
-      </c>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -2591,10 +2343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>272</v>
-      </c>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -2602,10 +2351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>272</v>
-      </c>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -2613,10 +2359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>272</v>
-      </c>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -2624,10 +2367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>272</v>
-      </c>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -2635,10 +2375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>272</v>
-      </c>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -2646,10 +2383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>272</v>
-      </c>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -2657,10 +2391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>272</v>
-      </c>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -2668,10 +2399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>272</v>
-      </c>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>0</v>
       </c>
@@ -2679,10 +2407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>272</v>
-      </c>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -2690,10 +2415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>272</v>
-      </c>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -2701,10 +2423,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>272</v>
-      </c>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -2712,10 +2431,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>272</v>
-      </c>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>0</v>
       </c>
@@ -2723,10 +2439,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>272</v>
-      </c>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -2734,10 +2447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>272</v>
-      </c>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -2745,10 +2455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>272</v>
-      </c>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>0</v>
       </c>
@@ -2756,10 +2463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>272</v>
-      </c>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>0</v>
       </c>
@@ -2767,10 +2471,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>272</v>
-      </c>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>0</v>
       </c>
@@ -2778,10 +2479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>272</v>
-      </c>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -2789,10 +2487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>272</v>
-      </c>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -2800,10 +2495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>272</v>
-      </c>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -2811,10 +2503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>272</v>
-      </c>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>0</v>
       </c>
@@ -2822,10 +2511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>272</v>
-      </c>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>0</v>
       </c>
@@ -2833,10 +2519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>272</v>
-      </c>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>0</v>
       </c>
@@ -2844,10 +2527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>272</v>
-      </c>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>0</v>
       </c>
@@ -2855,10 +2535,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>272</v>
-      </c>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>0</v>
       </c>
@@ -2866,10 +2543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>272</v>
-      </c>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>0</v>
       </c>
@@ -2877,10 +2551,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>272</v>
-      </c>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>0</v>
       </c>
@@ -2888,10 +2559,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>272</v>
-      </c>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>0</v>
       </c>
@@ -2899,10 +2567,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>272</v>
-      </c>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>0</v>
       </c>
@@ -2910,10 +2575,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>272</v>
-      </c>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>0</v>
       </c>
@@ -2921,10 +2583,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>272</v>
-      </c>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>0</v>
       </c>
@@ -2932,10 +2591,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>272</v>
-      </c>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>0</v>
       </c>
@@ -2943,10 +2599,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>272</v>
-      </c>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>0</v>
       </c>
@@ -2954,10 +2607,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>272</v>
-      </c>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -2965,10 +2615,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>272</v>
-      </c>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>0</v>
       </c>
@@ -2976,10 +2623,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>272</v>
-      </c>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>0</v>
       </c>
@@ -2987,10 +2631,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>272</v>
-      </c>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>0</v>
       </c>
@@ -2998,10 +2639,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>272</v>
-      </c>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>0</v>
       </c>
@@ -3009,10 +2647,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>272</v>
-      </c>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>0</v>
       </c>
@@ -3020,10 +2655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>272</v>
-      </c>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>121</v>
       </c>
@@ -3031,10 +2663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>272</v>
-      </c>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>121</v>
       </c>
@@ -3042,10 +2671,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>272</v>
-      </c>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>121</v>
       </c>
@@ -3053,10 +2679,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>272</v>
-      </c>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>121</v>
       </c>
@@ -3064,10 +2687,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>272</v>
-      </c>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>121</v>
       </c>
@@ -3075,10 +2695,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>272</v>
-      </c>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>121</v>
       </c>
@@ -3086,10 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>272</v>
-      </c>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>121</v>
       </c>
@@ -3097,10 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>272</v>
-      </c>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>121</v>
       </c>
@@ -3108,10 +2719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>272</v>
-      </c>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>121</v>
       </c>
@@ -3119,10 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>272</v>
-      </c>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>121</v>
       </c>
@@ -3130,10 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>272</v>
-      </c>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>121</v>
       </c>
@@ -3141,10 +2743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>272</v>
-      </c>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>121</v>
       </c>
@@ -3152,10 +2751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>272</v>
-      </c>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>121</v>
       </c>
@@ -3163,10 +2759,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>272</v>
-      </c>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>121</v>
       </c>
@@ -3174,10 +2767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>272</v>
-      </c>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>121</v>
       </c>
@@ -3185,10 +2775,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>272</v>
-      </c>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>121</v>
       </c>
@@ -3196,10 +2783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>272</v>
-      </c>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>121</v>
       </c>
@@ -3207,10 +2791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>272</v>
-      </c>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>121</v>
       </c>
@@ -3218,10 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>272</v>
-      </c>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>121</v>
       </c>
@@ -3229,10 +2807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>272</v>
-      </c>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>121</v>
       </c>
@@ -3240,10 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>272</v>
-      </c>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>121</v>
       </c>
@@ -3251,10 +2823,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>272</v>
-      </c>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>121</v>
       </c>
@@ -3262,10 +2831,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>272</v>
-      </c>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>121</v>
       </c>
@@ -3273,10 +2839,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>272</v>
-      </c>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>121</v>
       </c>
@@ -3284,10 +2847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>272</v>
-      </c>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>121</v>
       </c>
@@ -3295,10 +2855,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>272</v>
-      </c>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>121</v>
       </c>
@@ -3306,10 +2863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>272</v>
-      </c>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>121</v>
       </c>
@@ -3317,10 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>272</v>
-      </c>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>121</v>
       </c>
@@ -3328,10 +2879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>272</v>
-      </c>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>121</v>
       </c>
@@ -3339,10 +2887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>272</v>
-      </c>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>121</v>
       </c>
@@ -3350,10 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>272</v>
-      </c>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>121</v>
       </c>
@@ -3361,10 +2903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>272</v>
-      </c>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>121</v>
       </c>
@@ -3372,10 +2911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>272</v>
-      </c>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>121</v>
       </c>
@@ -3383,10 +2919,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>272</v>
-      </c>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>121</v>
       </c>
@@ -3394,10 +2927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>272</v>
-      </c>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>121</v>
       </c>
@@ -3405,10 +2935,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>272</v>
-      </c>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>121</v>
       </c>
@@ -3416,10 +2943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>272</v>
-      </c>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>121</v>
       </c>
@@ -3427,10 +2951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>272</v>
-      </c>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>121</v>
       </c>
@@ -3438,10 +2959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>272</v>
-      </c>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>121</v>
       </c>
@@ -3449,10 +2967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>272</v>
-      </c>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>121</v>
       </c>
@@ -3460,10 +2975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>272</v>
-      </c>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>121</v>
       </c>
@@ -3471,10 +2983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>272</v>
-      </c>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>121</v>
       </c>
@@ -3482,10 +2991,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>272</v>
-      </c>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>121</v>
       </c>
@@ -3493,10 +2999,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>272</v>
-      </c>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>121</v>
       </c>
@@ -3504,10 +3007,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>272</v>
-      </c>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>121</v>
       </c>
@@ -3515,10 +3015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>272</v>
-      </c>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>121</v>
       </c>
@@ -3526,10 +3023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>272</v>
-      </c>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>121</v>
       </c>
@@ -3537,10 +3031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>272</v>
-      </c>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>121</v>
       </c>
@@ -3548,10 +3039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>272</v>
-      </c>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>121</v>
       </c>
@@ -3559,10 +3047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>272</v>
-      </c>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>121</v>
       </c>
@@ -3570,10 +3055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>272</v>
-      </c>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>121</v>
       </c>
@@ -3581,10 +3063,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>272</v>
-      </c>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>121</v>
       </c>
@@ -3592,10 +3071,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>272</v>
-      </c>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>121</v>
       </c>
@@ -3603,10 +3079,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>272</v>
-      </c>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>121</v>
       </c>
@@ -3614,10 +3087,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>272</v>
-      </c>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>121</v>
       </c>
@@ -3625,10 +3095,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>272</v>
-      </c>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>121</v>
       </c>
@@ -3636,10 +3103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>272</v>
-      </c>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>121</v>
       </c>
@@ -3647,10 +3111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>272</v>
-      </c>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>121</v>
       </c>
@@ -3658,10 +3119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>272</v>
-      </c>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>121</v>
       </c>
@@ -3669,10 +3127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>272</v>
-      </c>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>121</v>
       </c>
@@ -3680,10 +3135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>272</v>
-      </c>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>121</v>
       </c>
@@ -3691,10 +3143,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>272</v>
-      </c>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>121</v>
       </c>
@@ -3702,10 +3151,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>272</v>
-      </c>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>121</v>
       </c>
@@ -3713,10 +3159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>272</v>
-      </c>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>121</v>
       </c>
@@ -3724,10 +3167,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>272</v>
-      </c>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>121</v>
       </c>
@@ -3735,10 +3175,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>272</v>
-      </c>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>121</v>
       </c>
@@ -3746,10 +3183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>272</v>
-      </c>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>121</v>
       </c>
@@ -3757,10 +3191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>272</v>
-      </c>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>121</v>
       </c>
@@ -3768,10 +3199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>272</v>
-      </c>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>121</v>
       </c>
@@ -3779,10 +3207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>272</v>
-      </c>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>121</v>
       </c>
@@ -3790,7 +3215,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>272</v>
+      </c>
       <c r="B193" t="s">
         <v>157</v>
       </c>
@@ -3798,7 +3226,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>272</v>
+      </c>
       <c r="B194" t="s">
         <v>157</v>
       </c>
@@ -3806,7 +3237,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>272</v>
+      </c>
       <c r="B195" t="s">
         <v>157</v>
       </c>
@@ -3814,7 +3248,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>272</v>
+      </c>
       <c r="B196" t="s">
         <v>157</v>
       </c>
@@ -3822,7 +3259,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>272</v>
+      </c>
       <c r="B197" t="s">
         <v>157</v>
       </c>
@@ -3830,7 +3270,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>272</v>
+      </c>
       <c r="B198" t="s">
         <v>157</v>
       </c>
@@ -3838,7 +3281,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>272</v>
+      </c>
       <c r="B199" t="s">
         <v>157</v>
       </c>
@@ -3846,7 +3292,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>272</v>
+      </c>
       <c r="B200" t="s">
         <v>157</v>
       </c>
@@ -3854,7 +3303,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>272</v>
+      </c>
       <c r="B201" t="s">
         <v>157</v>
       </c>
@@ -3862,7 +3314,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>272</v>
+      </c>
       <c r="B202" t="s">
         <v>157</v>
       </c>
@@ -3870,7 +3325,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>272</v>
+      </c>
       <c r="B203" t="s">
         <v>157</v>
       </c>
@@ -3878,7 +3336,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>272</v>
+      </c>
       <c r="B204" t="s">
         <v>157</v>
       </c>
@@ -3886,7 +3347,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>272</v>
+      </c>
       <c r="B205" t="s">
         <v>157</v>
       </c>
@@ -3894,7 +3358,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>272</v>
+      </c>
       <c r="B206" t="s">
         <v>157</v>
       </c>
@@ -3902,7 +3369,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>272</v>
+      </c>
       <c r="B207" t="s">
         <v>157</v>
       </c>
@@ -3910,7 +3380,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>272</v>
+      </c>
       <c r="B208" t="s">
         <v>157</v>
       </c>
@@ -3918,7 +3391,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>272</v>
+      </c>
       <c r="B209" t="s">
         <v>157</v>
       </c>
@@ -3926,7 +3402,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>272</v>
+      </c>
       <c r="B210" t="s">
         <v>157</v>
       </c>
@@ -3934,7 +3413,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>272</v>
+      </c>
       <c r="B211" t="s">
         <v>157</v>
       </c>
@@ -3942,7 +3424,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>272</v>
+      </c>
       <c r="B212" t="s">
         <v>157</v>
       </c>
@@ -3950,7 +3435,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>272</v>
+      </c>
       <c r="B213" t="s">
         <v>157</v>
       </c>
@@ -3958,7 +3446,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>272</v>
+      </c>
       <c r="B214" t="s">
         <v>157</v>
       </c>
@@ -3966,7 +3457,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>272</v>
+      </c>
       <c r="B215" t="s">
         <v>157</v>
       </c>
@@ -3974,7 +3468,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>272</v>
+      </c>
       <c r="B216" t="s">
         <v>157</v>
       </c>
@@ -3982,7 +3479,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>272</v>
+      </c>
       <c r="B217" t="s">
         <v>157</v>
       </c>
@@ -3990,7 +3490,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>272</v>
+      </c>
       <c r="B218" t="s">
         <v>157</v>
       </c>
@@ -3998,7 +3501,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>272</v>
+      </c>
       <c r="B219" t="s">
         <v>157</v>
       </c>
@@ -4006,7 +3512,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>272</v>
+      </c>
       <c r="B220" t="s">
         <v>157</v>
       </c>
@@ -4014,7 +3523,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>272</v>
+      </c>
       <c r="B221" t="s">
         <v>157</v>
       </c>
@@ -4022,7 +3534,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>272</v>
+      </c>
       <c r="B222" t="s">
         <v>157</v>
       </c>
@@ -4030,7 +3545,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>272</v>
+      </c>
       <c r="B223" t="s">
         <v>157</v>
       </c>
@@ -4038,7 +3556,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>272</v>
+      </c>
       <c r="B224" t="s">
         <v>157</v>
       </c>
@@ -4046,7 +3567,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>272</v>
+      </c>
       <c r="B225" t="s">
         <v>157</v>
       </c>
@@ -4054,7 +3578,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>272</v>
+      </c>
       <c r="B226" t="s">
         <v>157</v>
       </c>
@@ -4062,7 +3589,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>272</v>
+      </c>
       <c r="B227" t="s">
         <v>157</v>
       </c>
@@ -4070,7 +3600,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>272</v>
+      </c>
       <c r="B228" t="s">
         <v>157</v>
       </c>
@@ -4078,7 +3611,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>272</v>
+      </c>
       <c r="B229" t="s">
         <v>157</v>
       </c>
@@ -4086,7 +3622,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>272</v>
+      </c>
       <c r="B230" t="s">
         <v>157</v>
       </c>
@@ -4094,7 +3633,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>272</v>
+      </c>
       <c r="B231" t="s">
         <v>157</v>
       </c>
@@ -4102,7 +3644,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>272</v>
+      </c>
       <c r="B232" t="s">
         <v>157</v>
       </c>
@@ -4110,7 +3655,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>272</v>
+      </c>
       <c r="B233" t="s">
         <v>157</v>
       </c>
@@ -4118,7 +3666,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>272</v>
+      </c>
       <c r="B234" t="s">
         <v>157</v>
       </c>
@@ -4126,7 +3677,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>272</v>
+      </c>
       <c r="B235" t="s">
         <v>157</v>
       </c>
@@ -4134,7 +3688,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>272</v>
+      </c>
       <c r="B236" t="s">
         <v>157</v>
       </c>
@@ -4142,7 +3699,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>272</v>
+      </c>
       <c r="B237" t="s">
         <v>157</v>
       </c>
@@ -4150,7 +3710,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>272</v>
+      </c>
       <c r="B238" t="s">
         <v>157</v>
       </c>
@@ -4158,7 +3721,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>272</v>
+      </c>
       <c r="B239" t="s">
         <v>157</v>
       </c>
@@ -4166,7 +3732,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>272</v>
+      </c>
       <c r="B240" t="s">
         <v>157</v>
       </c>
@@ -4174,7 +3743,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>272</v>
+      </c>
       <c r="B241" t="s">
         <v>157</v>
       </c>
@@ -4182,7 +3754,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>272</v>
+      </c>
       <c r="B242" t="s">
         <v>157</v>
       </c>
@@ -4190,7 +3765,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>272</v>
+      </c>
       <c r="B243" t="s">
         <v>157</v>
       </c>
@@ -4198,7 +3776,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>272</v>
+      </c>
       <c r="B244" t="s">
         <v>157</v>
       </c>
@@ -4206,7 +3787,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>272</v>
+      </c>
       <c r="B245" t="s">
         <v>157</v>
       </c>
@@ -4214,7 +3798,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>272</v>
+      </c>
       <c r="B246" t="s">
         <v>157</v>
       </c>
@@ -4222,7 +3809,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>272</v>
+      </c>
       <c r="B247" t="s">
         <v>157</v>
       </c>
@@ -4230,7 +3820,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>272</v>
+      </c>
       <c r="B248" t="s">
         <v>157</v>
       </c>
@@ -4238,7 +3831,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>272</v>
+      </c>
       <c r="B249" t="s">
         <v>157</v>
       </c>
@@ -4246,7 +3842,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>272</v>
+      </c>
       <c r="B250" t="s">
         <v>157</v>
       </c>
@@ -4254,7 +3853,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>272</v>
+      </c>
       <c r="B251" t="s">
         <v>157</v>
       </c>
@@ -4262,7 +3864,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>272</v>
+      </c>
       <c r="B252" t="s">
         <v>157</v>
       </c>
@@ -4270,7 +3875,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>272</v>
+      </c>
       <c r="B253" t="s">
         <v>157</v>
       </c>
@@ -4278,7 +3886,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>272</v>
+      </c>
       <c r="B254" t="s">
         <v>157</v>
       </c>
@@ -4286,7 +3897,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>272</v>
+      </c>
       <c r="B255" t="s">
         <v>157</v>
       </c>
@@ -4294,7 +3908,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>272</v>
+      </c>
       <c r="B256" t="s">
         <v>157</v>
       </c>
@@ -4302,7 +3919,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>272</v>
+      </c>
       <c r="B257" t="s">
         <v>157</v>
       </c>
@@ -4310,7 +3930,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>272</v>
+      </c>
       <c r="B258" t="s">
         <v>157</v>
       </c>
@@ -4318,7 +3941,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>272</v>
+      </c>
       <c r="B259" t="s">
         <v>157</v>
       </c>
@@ -4326,7 +3952,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>272</v>
+      </c>
       <c r="B260" t="s">
         <v>157</v>
       </c>
@@ -4334,7 +3963,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>272</v>
+      </c>
       <c r="B261" t="s">
         <v>157</v>
       </c>
@@ -4342,7 +3974,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>272</v>
+      </c>
       <c r="B262" t="s">
         <v>157</v>
       </c>
@@ -4350,7 +3985,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>272</v>
+      </c>
       <c r="B263" t="s">
         <v>157</v>
       </c>
@@ -4358,7 +3996,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>272</v>
+      </c>
       <c r="B264" t="s">
         <v>157</v>
       </c>
@@ -4366,7 +4007,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>272</v>
+      </c>
       <c r="B265" t="s">
         <v>157</v>
       </c>
@@ -4374,7 +4018,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>272</v>
+      </c>
       <c r="B266" t="s">
         <v>157</v>
       </c>
@@ -4382,7 +4029,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
       <c r="B267" t="s">
         <v>157</v>
       </c>
@@ -4390,7 +4040,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>272</v>
+      </c>
       <c r="B268" t="s">
         <v>157</v>
       </c>
@@ -4398,7 +4051,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>272</v>
+      </c>
       <c r="B269" t="s">
         <v>157</v>
       </c>
@@ -4406,7 +4062,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
       <c r="B270" t="s">
         <v>157</v>
       </c>
@@ -4414,7 +4073,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
       <c r="B271" t="s">
         <v>157</v>
       </c>
@@ -4422,7 +4084,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
       <c r="B272" t="s">
         <v>157</v>
       </c>
@@ -4430,7 +4095,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
       <c r="B273" t="s">
         <v>157</v>
       </c>
@@ -4438,7 +4106,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>272</v>
+      </c>
       <c r="B274" t="s">
         <v>157</v>
       </c>
@@ -4446,7 +4117,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>272</v>
+      </c>
       <c r="B275" t="s">
         <v>157</v>
       </c>
@@ -4454,7 +4128,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>272</v>
+      </c>
       <c r="B276" t="s">
         <v>157</v>
       </c>
@@ -4462,7 +4139,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>272</v>
+      </c>
       <c r="B277" t="s">
         <v>157</v>
       </c>
@@ -4470,7 +4150,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>272</v>
+      </c>
       <c r="B278" t="s">
         <v>157</v>
       </c>
@@ -4478,7 +4161,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>272</v>
+      </c>
       <c r="B279" t="s">
         <v>157</v>
       </c>
@@ -4486,7 +4172,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>272</v>
+      </c>
       <c r="B280" t="s">
         <v>157</v>
       </c>
@@ -4494,7 +4183,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>272</v>
+      </c>
       <c r="B281" t="s">
         <v>157</v>
       </c>
@@ -4502,7 +4194,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>272</v>
+      </c>
       <c r="B282" t="s">
         <v>157</v>
       </c>
@@ -4510,7 +4205,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>272</v>
+      </c>
       <c r="B283" t="s">
         <v>157</v>
       </c>
@@ -4518,7 +4216,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>272</v>
+      </c>
       <c r="B284" t="s">
         <v>157</v>
       </c>
@@ -4526,7 +4227,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>272</v>
+      </c>
       <c r="B285" t="s">
         <v>157</v>
       </c>
@@ -4534,7 +4238,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>272</v>
+      </c>
       <c r="B286" t="s">
         <v>157</v>
       </c>
@@ -4542,7 +4249,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>272</v>
+      </c>
       <c r="B287" t="s">
         <v>157</v>
       </c>
@@ -4550,7 +4260,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>272</v>
+      </c>
       <c r="B288" t="s">
         <v>157</v>
       </c>
@@ -4558,7 +4271,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>272</v>
+      </c>
       <c r="B289" t="s">
         <v>157</v>
       </c>
@@ -4566,7 +4282,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>272</v>
+      </c>
       <c r="B290" t="s">
         <v>157</v>
       </c>
@@ -4574,7 +4293,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>272</v>
+      </c>
       <c r="B291" t="s">
         <v>157</v>
       </c>
@@ -4582,7 +4304,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>272</v>
+      </c>
       <c r="B292" t="s">
         <v>157</v>
       </c>
@@ -4590,7 +4315,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>272</v>
+      </c>
       <c r="B293" t="s">
         <v>157</v>
       </c>
@@ -4598,7 +4326,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>272</v>
+      </c>
       <c r="B294" t="s">
         <v>157</v>
       </c>
@@ -4606,7 +4337,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>272</v>
+      </c>
       <c r="B295" t="s">
         <v>157</v>
       </c>
@@ -4614,7 +4348,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>272</v>
+      </c>
       <c r="B296" t="s">
         <v>157</v>
       </c>
@@ -4622,7 +4359,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>272</v>
+      </c>
       <c r="B297" t="s">
         <v>157</v>
       </c>
@@ -4630,7 +4370,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>272</v>
+      </c>
       <c r="B298" t="s">
         <v>157</v>
       </c>
@@ -4638,7 +4381,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>272</v>
+      </c>
       <c r="B299" t="s">
         <v>157</v>
       </c>
@@ -4647,7 +4393,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>